--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_QC.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_QC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8B3BE9-F893-4F88-AE59-5C4528E8D10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC666AF0-C366-490C-A860-A5B5265D529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2669EF1-79AE-4C7F-B7FA-CAE13FB18C7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF262EA8-33D2-45BF-84F2-C48ABC7110FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>Should move once include subsidy policy! - 2015 &amp; 2020 values are actual sales; https://www150.statcan.gc.ca/t1/tbl1/en/cv.action?pid=2010002101</t>
+    <t>Should move 2015 &amp; 2020 values (actual sales) once include subsidy policy! ; https://www150.statcan.gc.ca/t1/tbl1/en/cv.action?pid=2010002101</t>
   </si>
   <si>
     <t>Plug-in Hybrid</t>
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35489275-18F8-41D3-9D1C-4B0092DA72A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969AE84E-60D7-4694-8CF5-582BA281B117}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -622,16 +622,16 @@
         <v>0.65</v>
       </c>
       <c r="T3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="X3" t="s">
         <v>21</v>
